--- a/complete_timetableb2a72.xlsx
+++ b/complete_timetableb2a72.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="101">
   <si>
     <t>Monday</t>
   </si>
@@ -74,147 +74,144 @@
     <t>Mathematics-I Lecture</t>
   </si>
   <si>
+    <t>Probability &amp; Statistics Lecture</t>
+  </si>
+  <si>
+    <t>Tech Report Writing Lecture</t>
+  </si>
+  <si>
     <t>General Biology Lecture</t>
   </si>
   <si>
     <t>General Chemistry Lecture</t>
   </si>
   <si>
-    <t>Probability &amp; Statistics Lecture</t>
-  </si>
-  <si>
-    <t>Tech Report Writing Lecture</t>
+    <t>Probability &amp; Statistics Tut</t>
   </si>
   <si>
     <t>General Biology Tut</t>
   </si>
   <si>
+    <t>Engineering Graphics Tut</t>
+  </si>
+  <si>
+    <t>Engineering Graphics Lab</t>
+  </si>
+  <si>
+    <t>Mathematics-I Tut</t>
+  </si>
+  <si>
+    <t>General Chemistry Tut</t>
+  </si>
+  <si>
+    <t>Physics Lab Lab</t>
+  </si>
+  <si>
     <t>Chemistry Lab Lab</t>
   </si>
   <si>
-    <t>Engineering Graphics Tut</t>
-  </si>
-  <si>
-    <t>Mathematics-I Tut</t>
-  </si>
-  <si>
-    <t>General Chemistry Tut</t>
-  </si>
-  <si>
-    <t>Engineering Graphics Lab</t>
-  </si>
-  <si>
-    <t>Physics Lab Lab</t>
-  </si>
-  <si>
-    <t>Probability &amp; Statistics Tut</t>
+    <t>Thermodynamics Lecture</t>
+  </si>
+  <si>
+    <t>Computer Programming Lecture</t>
+  </si>
+  <si>
+    <t>Mechanical Oscillation &amp; Waves Lecture</t>
+  </si>
+  <si>
+    <t>Electrical Sciences Lecture</t>
+  </si>
+  <si>
+    <t>Mathematics-II Lecture</t>
+  </si>
+  <si>
+    <t>Biology Lab Lab</t>
+  </si>
+  <si>
+    <t>Electrical Sciences Tut</t>
+  </si>
+  <si>
+    <t>Mathematics-II Tut</t>
+  </si>
+  <si>
+    <t>Mechanical Oscillation &amp; Waves Tut</t>
+  </si>
+  <si>
+    <t>Thermodynamics Tut</t>
+  </si>
+  <si>
+    <t>Workshop Practice Tut</t>
   </si>
   <si>
     <t>Computer Programming Lab</t>
   </si>
   <si>
-    <t>Mechanical Oscillation &amp; Waves Lecture</t>
-  </si>
-  <si>
-    <t>Electrical Sciences Lecture</t>
-  </si>
-  <si>
-    <t>Mathematics-II Lecture</t>
-  </si>
-  <si>
-    <t>Thermodynamics Lecture</t>
-  </si>
-  <si>
-    <t>Computer Programming Lecture</t>
-  </si>
-  <si>
-    <t>Biology Lab Lab</t>
-  </si>
-  <si>
-    <t>Thermodynamics Tut</t>
-  </si>
-  <si>
-    <t>Workshop Practice Tut</t>
-  </si>
-  <si>
-    <t>Workshop Practice Lab</t>
-  </si>
-  <si>
-    <t>Electrical Sciences Tut</t>
-  </si>
-  <si>
-    <t>Mechanical Oscillation &amp; Waves Tut</t>
-  </si>
-  <si>
-    <t>Mathematics-II Tut</t>
+    <t>Inorganic Chemistry I Lecture</t>
+  </si>
+  <si>
+    <t>Organic Chemistry I Lecture</t>
+  </si>
+  <si>
+    <t>Physical Chemistry II Lecture</t>
+  </si>
+  <si>
+    <t>Electromagnetic Theory I Lecture</t>
   </si>
   <si>
     <t>Mathematics III Lecture</t>
   </si>
   <si>
-    <t>Organic Chemistry I Lecture</t>
-  </si>
-  <si>
     <t>Physical Chemistry I Lecture</t>
   </si>
   <si>
-    <t>Electromagnetic Theory I Lecture</t>
-  </si>
-  <si>
-    <t>Physical Chemistry II Lecture</t>
-  </si>
-  <si>
-    <t>Inorganic Chemistry I Lecture</t>
+    <t>Mathematics III Tut</t>
+  </si>
+  <si>
+    <t>Physical Chemistry II Tut</t>
+  </si>
+  <si>
+    <t>Inorganic Chemistry I Tut</t>
+  </si>
+  <si>
+    <t>Organic Chemistry I Tut</t>
+  </si>
+  <si>
+    <t>Electromagnetic Theory I Tut</t>
   </si>
   <si>
     <t>Physical Chemistry I Tut</t>
   </si>
   <si>
-    <t>Electromagnetic Theory I Tut</t>
-  </si>
-  <si>
-    <t>Mathematics III Tut</t>
-  </si>
-  <si>
-    <t>Organic Chemistry I Tut</t>
-  </si>
-  <si>
-    <t>Inorganic Chemistry I Tut</t>
-  </si>
-  <si>
-    <t>Physical Chemistry II Tut</t>
+    <t>Physical Chemistry III Lecture</t>
+  </si>
+  <si>
+    <t>Principles of Economics Lecture</t>
   </si>
   <si>
     <t>Organic Chemistry II Lecture</t>
   </si>
   <si>
-    <t>Physical Chemistry III Lecture</t>
-  </si>
-  <si>
     <t>Inorganic Chemistry II Lecture</t>
   </si>
   <si>
-    <t>Principles of Economics Lecture</t>
-  </si>
-  <si>
     <t>Organic Chemistry II Tut</t>
   </si>
   <si>
+    <t>Inorganic Chemistry II Tut</t>
+  </si>
+  <si>
+    <t>Chemical Experimentation I Lab</t>
+  </si>
+  <si>
     <t>Physical Chemistry III Tut</t>
   </si>
   <si>
-    <t>Chemical Experimentation I Lab</t>
-  </si>
-  <si>
-    <t>Inorganic Chemistry II Tut</t>
+    <t>Logic in Computer Science Lecture</t>
   </si>
   <si>
     <t>Organic Chemistry III Lecture</t>
   </si>
   <si>
-    <t>Logic in Computer Science Lecture</t>
-  </si>
-  <si>
     <t>Object-Oriented Programming Lecture</t>
   </si>
   <si>
@@ -224,73 +221,79 @@
     <t>Object-Oriented Programming Lab</t>
   </si>
   <si>
+    <t>Discrete Structures for Comp Sci Lecture</t>
+  </si>
+  <si>
     <t>Physical Chemistry IV Lecture</t>
   </si>
   <si>
-    <t>Discrete Structures for Comp Sci Lecture</t>
-  </si>
-  <si>
-    <t>Instrumental Methods of Analysis Lab</t>
+    <t>Physical Chemistry IV Tut</t>
+  </si>
+  <si>
+    <t>Digital Design Lab</t>
+  </si>
+  <si>
+    <t>Discrete Structures for Comp Sci Tut</t>
+  </si>
+  <si>
+    <t>Instrumental Methods of Analysis Lecture</t>
+  </si>
+  <si>
+    <t>Logic in Computer Science Tut</t>
+  </si>
+  <si>
+    <t>Organic Chemistry III Tut</t>
   </si>
   <si>
     <t>Digital Design Tut</t>
   </si>
   <si>
-    <t>Instrumental Methods of Analysis Lecture</t>
-  </si>
-  <si>
-    <t>Digital Design Lab</t>
-  </si>
-  <si>
-    <t>Physical Chemistry IV Tut</t>
-  </si>
-  <si>
-    <t>Organic Chemistry III Tut</t>
-  </si>
-  <si>
-    <t>Discrete Structures for Comp Sci Tut</t>
-  </si>
-  <si>
-    <t>Logic in Computer Science Tut</t>
+    <t>Microprocessor &amp; Interfacing Lab</t>
+  </si>
+  <si>
+    <t>Inorganic Chemistry III Lecture</t>
+  </si>
+  <si>
+    <t>Microprocessor &amp; Interfacing Lecture</t>
+  </si>
+  <si>
+    <t>Database Systems Lecture</t>
+  </si>
+  <si>
+    <t>Data Structures &amp; Algorithms Lecture</t>
   </si>
   <si>
     <t>Organic Chemistry IV Lecture</t>
   </si>
   <si>
-    <t>Inorganic Chemistry III Lecture</t>
-  </si>
-  <si>
-    <t>Database Systems Lecture</t>
-  </si>
-  <si>
-    <t>Data Structures &amp; Algorithms Lecture</t>
-  </si>
-  <si>
-    <t>Microprocessor &amp; Interfacing Lecture</t>
-  </si>
-  <si>
     <t>Database Systems Lab</t>
   </si>
   <si>
+    <t>Database Systems Tut</t>
+  </si>
+  <si>
+    <t>Inorganic Chemistry III Tut</t>
+  </si>
+  <si>
     <t>Organic Chemistry IV Tut</t>
   </si>
   <si>
+    <t>Microprocessor &amp; Interfacing Tut</t>
+  </si>
+  <si>
     <t>Chemical Experimentation II Lab</t>
   </si>
   <si>
-    <t>Database Systems Tut</t>
-  </si>
-  <si>
     <t>Data Structures &amp; Algorithms Lab</t>
   </si>
   <si>
-    <t>Inorganic Chemistry III Tut</t>
-  </si>
-  <si>
-    <t>Microprocessor &amp; Interfacing Tut</t>
-  </si>
-  <si>
-    <t>Microprocessor &amp; Interfacing Lab</t>
+    <t>Principles of Programming Languages Lecture</t>
+  </si>
+  <si>
+    <t>Computer Architecture Lecture</t>
+  </si>
+  <si>
+    <t>Computer Architecture Lab</t>
   </si>
   <si>
     <t>Operating Systems Lecture</t>
@@ -299,18 +302,9 @@
     <t>Theory of Computation Lecture</t>
   </si>
   <si>
-    <t>Computer Architecture Lecture</t>
-  </si>
-  <si>
-    <t>Principles of Programming Languages Lecture</t>
-  </si>
-  <si>
     <t>Theory of Computation Tut</t>
   </si>
   <si>
-    <t>Computer Architecture Lab</t>
-  </si>
-  <si>
     <t>Operating Systems Lab</t>
   </si>
   <si>
@@ -326,10 +320,10 @@
     <t>Compiler Construction Tut</t>
   </si>
   <si>
+    <t>Computer Networks Tut</t>
+  </si>
+  <si>
     <t>Design &amp; Analysis of Algorithms Tut</t>
-  </si>
-  <si>
-    <t>Computer Networks Tut</t>
   </si>
 </sst>
 </file>
@@ -717,28 +711,16 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -746,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -760,21 +742,36 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -786,31 +783,25 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -821,7 +812,10 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -834,11 +828,11 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
         <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -881,9 +875,6 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -893,35 +884,38 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
+      <c r="E5" t="s">
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -929,13 +923,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -947,8 +941,14 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -958,9 +958,6 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
@@ -972,20 +969,8 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -993,19 +978,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1045,25 +1030,13 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
+      <c r="E3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1071,16 +1044,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1088,16 +1058,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1105,16 +1075,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1126,14 +1093,17 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1141,16 +1111,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1158,18 +1128,33 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1214,8 +1199,14 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1223,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1231,13 +1222,19 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1248,37 +1245,22 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1286,13 +1268,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1300,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1346,25 +1331,25 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1372,19 +1357,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1392,16 +1374,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1409,16 +1391,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1431,13 +1410,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
         <v>71</v>
@@ -1448,13 +1421,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1465,13 +1438,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1479,16 +1455,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1534,30 +1510,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
       <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1565,16 +1538,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1582,16 +1555,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1603,31 +1576,37 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>84</v>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1637,11 +1616,11 @@
       <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
       <c r="D10" t="s">
         <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
       </c>
       <c r="F10" t="s">
         <v>80</v>
@@ -1651,17 +1630,8 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
       <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1707,27 +1677,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>95</v>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1735,24 +1705,15 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
+      <c r="B6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1764,8 +1725,14 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1779,29 +1746,23 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1841,55 +1802,58 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>100</v>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1901,14 +1865,14 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -1918,9 +1882,6 @@
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
